--- a/dal, subji, kadhi/Subji/Stuffed turai recipe by nisha madhulika Mtj.xlsx
+++ b/dal, subji, kadhi/Subji/Stuffed turai recipe by nisha madhulika Mtj.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Dropbox\recipies\dal, subji, kadhi\Subji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47772DC-291F-46D2-A3C4-9D4D8672A5D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF55F17-1508-4F17-8C3E-7487FAA63DF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{134C7825-DF8B-42D3-A51C-71C91B0E6488}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Item name</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=LNNIEwWXi_o</t>
+  </si>
+  <si>
+    <t>Turai after chilka</t>
   </si>
 </sst>
 </file>
@@ -249,8 +252,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D76ED776-8104-432C-B917-1D930E70AF60}" name="Table1" displayName="Table1" ref="A1:F27" totalsRowShown="0">
-  <autoFilter ref="A1:F27" xr:uid="{12D95053-9C3E-4819-B2F6-1CB5C1FDDA15}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D76ED776-8104-432C-B917-1D930E70AF60}" name="Table1" displayName="Table1" ref="A1:F28" totalsRowShown="0">
+  <autoFilter ref="A1:F28" xr:uid="{12D95053-9C3E-4819-B2F6-1CB5C1FDDA15}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{BD6E7EDD-66B1-4838-AD7A-A2AA04EF5520}" name="Item name"/>
     <tableColumn id="2" xr3:uid="{80E22383-2B6C-411A-A07C-2DA040A14090}" name="Daily recipe" dataDxfId="0">
@@ -562,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E1998A-25FC-42BE-BFFC-DAF05717235E}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,14 +622,14 @@
         <v>15</v>
       </c>
       <c r="B3" s="5">
-        <f t="shared" ref="B3:B17" si="0">(E3/F3)*D3</f>
-        <v>500</v>
+        <f t="shared" ref="B3:B18" si="0">(E3/F3)*D3</f>
+        <v>312.5</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="9">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E3" s="10">
         <v>500</v>
@@ -641,13 +644,13 @@
       </c>
       <c r="B4" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="9">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E4" s="10">
         <v>1</v>
@@ -661,89 +664,87 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B5" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>(E5/F5)*D5</f>
+        <v>218.75</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" s="9">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E5" s="10">
-        <v>4</v>
+        <v>350</v>
       </c>
       <c r="F5" s="10">
         <v>4</v>
       </c>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="9">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E6" s="10">
         <v>4</v>
       </c>
       <c r="F6" s="10">
         <v>4</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="9">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E7" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="10">
         <v>4</v>
       </c>
+      <c r="H7" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8" s="9">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E8" s="10">
         <v>2</v>
@@ -751,89 +752,92 @@
       <c r="F8" s="10">
         <v>4</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>10</v>
+      <c r="I8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="9">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E9" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H9" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="9">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E10" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F10" s="10">
         <v>4</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="9">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E11" s="10">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="10">
         <v>4</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.15625</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="9">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E12" s="10">
         <v>0.25</v>
@@ -841,47 +845,47 @@
       <c r="F12" s="10">
         <v>4</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.15625</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D13" s="9">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E13" s="10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F13" s="10">
         <v>4</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.625</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D14" s="9">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E14" s="10">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F14" s="10">
         <v>4</v>
@@ -889,20 +893,20 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.15625</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="9">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E15" s="10">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F15" s="10">
         <v>4</v>
@@ -910,51 +914,64 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="5">
-        <f t="shared" si="0"/>
+      <c r="B17" s="5">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E17" s="10">
         <v>2</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="9">
-        <v>4</v>
-      </c>
-      <c r="E16" s="10">
-        <v>2</v>
-      </c>
-      <c r="F16" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="F17" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="5">
-        <f t="shared" si="0"/>
+      <c r="B18" s="5">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E18" s="10">
         <v>1</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="9">
-        <v>4</v>
-      </c>
-      <c r="E17" s="10">
-        <v>1</v>
-      </c>
-      <c r="F17" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="F18" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
@@ -1003,6 +1020,14 @@
       <c r="D24" s="9"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
